--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\FoBObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77AB968-3AB5-4F2C-8545-3CA5E7C97BDD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="25500" windowHeight="13995"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="25500" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15,8 +21,13 @@
   <definedNames>
     <definedName name="Cibeus_00006" localSheetId="2">Commercial!$A$1:$R$59</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,8 +36,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="\DOCUME~1\DLINDIA\LOCALS~1\TEMP\CIBEUS_00006.TXT" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="\DOCUME~1\DLINDIA\LOCALS~1\TEMP\CIBEUS_00006.TXT" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
     <textPr prompt="0" sourceFile="C:\DOCUME~1\DLINDIA\LOCALS~1\TEMP\CIBEUS_00006.TXT">
       <textFields>
         <textField/>
@@ -196,9 +207,6 @@
     <t>Office of Energy Efficiency</t>
   </si>
   <si>
-    <t>http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/data_e/cibeus/tables/cibeus_2_7_2.cfm?attr=0</t>
-  </si>
-  <si>
     <t>Government</t>
   </si>
   <si>
@@ -311,17 +319,20 @@
   </si>
   <si>
     <t>Rented (non-public housing)</t>
+  </si>
+  <si>
+    <t>http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/data_e/cibeus/tables/cibeus_1_6_2.cfm?attr=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="###,###,###,##0&quot;  &quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +410,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -735,7 +752,6 @@
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -807,6 +823,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,26 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -876,6 +893,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -898,7 +918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -925,7 +951,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Cibeus_00006" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Cibeus_00006" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1004,9 +1030,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,6 +1082,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1214,10 +1274,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1235,7 +1297,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1246,49 +1308,49 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="30" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1297,70 +1359,71 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="54"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1391,7 +1454,7 @@
         <v>2574921860</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -1399,7 +1462,7 @@
         <v>2253649884</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -1407,7 +1470,7 @@
         <v>321271976</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1429,7 +1492,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <f>M20/M6</f>
@@ -1438,7 +1501,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,12 +1514,12 @@
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48">
         <f>0.04*B42</f>
@@ -1465,7 +1528,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49">
         <f>0.96*B42</f>
@@ -1491,7 +1554,7 @@
       <c r="A55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="28">
         <v>0.75</v>
       </c>
     </row>
@@ -1499,44 +1562,44 @@
       <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="28">
         <v>0.25</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="32"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="30">
+      <c r="B59" s="29">
         <f>B48</f>
         <v>4.990784085385799E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="30">
+      <c r="B60" s="29">
         <f>B49*E56</f>
         <v>2.994470451231479E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="29">
         <f>B41+B49*E55</f>
         <v>0.96506451140229943</v>
       </c>
@@ -1554,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1563,653 +1626,653 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18" style="6" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="6"/>
-    <col min="22" max="22" width="11.42578125" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="39.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="2.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18" style="5" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="11.42578125" style="5" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-    </row>
-    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="52"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="52"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="34" t="s">
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="40"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26" t="s">
+      <c r="Q6" s="49"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="V6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="26" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="T7" s="27">
+      <c r="S7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="26">
         <f>P8/R8</f>
         <v>0.28066590761392285</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="26">
         <f>(L8+N8)/R8</f>
         <v>0.52271220946994912</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="26">
         <f>J8/R8</f>
         <v>0.19662188291612803</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>54022</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>49768</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>16505</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>16745</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>59492076</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>129712194</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>28445352</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>84921359</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <f>SUM(J8+L8+N8+P8)</f>
         <v>302570981</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="8">
+        <v>3584</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3756</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8">
+        <v>889</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1193</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="11">
+        <v>4043631</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="8">
+        <v>6924178</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="8">
+        <v>928148</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5087579</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9">
-        <v>3584</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="12">
+        <v>13584</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9">
-        <v>3756</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="12">
+        <v>10818</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="9">
-        <v>889</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F11" s="12">
+        <v>3730</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="9">
-        <v>1193</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H11" s="12">
+        <v>3868</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="15">
+        <v>12630126</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="12">
+        <v>30251570</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="12">
-        <v>4043631</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="N11" s="12">
+        <v>5818873</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="9">
-        <v>6924178</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="P11" s="12">
+        <v>22462172</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="12">
+        <v>23428</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12">
+        <v>17719</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5159</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5876</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="15">
+        <v>29731098</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="12">
+        <v>49612578</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="12">
+        <v>9030932</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="12">
+        <v>31495957</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8269</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10051</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12">
+        <v>4672</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="9">
-        <v>928148</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="H13" s="12">
+        <v>3763</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="9">
-        <v>5087579</v>
-      </c>
-      <c r="Q10" s="10" t="s">
+      <c r="J13" s="15">
+        <v>7733955</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="12">
+        <v>31400740</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13">
-        <v>13584</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10818</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3730</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="N13" s="12">
+        <v>9005427</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="12">
+        <v>19476795</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="18">
+        <v>5157</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="13">
-        <v>3868</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="16">
-        <v>12630126</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="13">
-        <v>30251570</v>
-      </c>
-      <c r="M11" s="14" t="s">
+      <c r="D14" s="18">
+        <v>7423</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="13">
-        <v>5818873</v>
-      </c>
-      <c r="O11" s="14" t="s">
+      <c r="F14" s="18">
+        <v>2055</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2045</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="13">
-        <v>22462172</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13">
-        <v>23428</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="13">
-        <v>17719</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="13">
-        <v>5159</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="13">
-        <v>5876</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="16">
-        <v>29731098</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="J14" s="21">
+        <v>5353266</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="13">
-        <v>49612578</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="13">
-        <v>9030932</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="13">
-        <v>31495957</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="13">
-        <v>8269</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10051</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="13">
-        <v>4672</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="L14" s="18">
+        <v>11523127</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="13">
-        <v>3763</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="N14" s="18">
+        <v>3661972</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="18">
+        <v>6398855</v>
+      </c>
+      <c r="Q14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="16">
-        <v>7733955</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="13">
-        <v>31400740</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="13">
-        <v>9005427</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="13">
-        <v>19476795</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="19">
-        <v>5157</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="19">
-        <v>7423</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2055</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="19">
-        <v>2045</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="22">
-        <v>5353266</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="19">
-        <v>11523127</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="19">
-        <v>3661972</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19">
-        <v>6398855</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20"/>
@@ -2992,12 +3055,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="J5:Q5"/>
     <mergeCell ref="T5:V5"/>
     <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A17:Q17"/>
@@ -3014,6 +3071,12 @@
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="J5:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3025,8 +3088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
@@ -3045,13 +3108,13 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3059,15 +3122,15 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <f>Residential!B59</f>
         <v>4.990784085385799E-3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>B2</f>
         <v>4.990784085385799E-3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>Commercial!T7</f>
         <v>0.28066590761392285</v>
       </c>
@@ -3076,15 +3139,15 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>Residential!B60</f>
         <v>2.994470451231479E-2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" ref="C3" si="0">B3</f>
         <v>2.994470451231479E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>Commercial!U7</f>
         <v>0.52271220946994912</v>
       </c>
@@ -3093,15 +3156,15 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>Residential!B61</f>
         <v>0.96506451140229943</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>B4</f>
         <v>0.96506451140229943</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>Commercial!V7</f>
         <v>0.19662188291612803</v>
       </c>

--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25324"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\FoBObE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77AB968-3AB5-4F2C-8545-3CA5E7C97BDD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="8_{3BD8FDD3-0E1F-4917-AA2A-014B6757B8F3}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{3549D4B4-1A63-4184-8F01-E454B2E02D0D}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="25500" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="25500" windowHeight="13995" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Residential" sheetId="5" r:id="rId2"/>
-    <sheet name="Commercial" sheetId="3" r:id="rId3"/>
-    <sheet name="FoBObE" sheetId="4" r:id="rId4"/>
+    <sheet name="Ownsership - Res" sheetId="6" r:id="rId3"/>
+    <sheet name="Commercial" sheetId="3" r:id="rId4"/>
+    <sheet name="Calculations" sheetId="7" r:id="rId5"/>
+    <sheet name="FoBObE" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Cibeus_00006" localSheetId="2">Commercial!$A$1:$R$59</definedName>
+    <definedName name="Cibeus_00006" localSheetId="3">Commercial!$A$1:$R$59</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -35,20 +42,11 @@
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="\DOCUME~1\DLINDIA\LOCALS~1\TEMP\CIBEUS_00006.TXT" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
-    <textPr prompt="0" sourceFile="C:\DOCUME~1\DLINDIA\LOCALS~1\TEMP\CIBEUS_00006.TXT">
-      <textFields>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+  <si>
+    <t>FoBObE Fraction of Buildings Owned by Entity</t>
+  </si>
   <si>
     <t>Sources:</t>
   </si>
@@ -56,24 +54,132 @@
     <t>Residential</t>
   </si>
   <si>
+    <t>Natural Resources Canada</t>
+  </si>
+  <si>
+    <t>Survey of Household Energy Use 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office of energy efficiency </t>
+  </si>
+  <si>
+    <t>https://oee.nrcan.gc.ca/publications/statistics/sheu/2011/pdf/sheu2011.pdf</t>
+  </si>
+  <si>
+    <t>Table 1.2</t>
+  </si>
+  <si>
+    <t>Statistics Canada</t>
+  </si>
+  <si>
+    <t>Archived Content</t>
+  </si>
+  <si>
+    <t>https://www.statcan.gc.ca/pub/75-001-x/00602/8442-eng.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gives assumption of 4% of renters living in public housing </t>
+  </si>
+  <si>
     <t>Commercial</t>
   </si>
   <si>
+    <t xml:space="preserve">SURVEY OF COMMERCIAL AND INSTITUTIONAL ENERGY USE – BUILDINGS 2009 </t>
+  </si>
+  <si>
+    <t>Office of Energy Efficiency</t>
+  </si>
+  <si>
+    <t>http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/data_e/cibeus/tables/cibeus_1_6_2.cfm?attr=0</t>
+  </si>
+  <si>
+    <t>Table 1.6</t>
+  </si>
+  <si>
+    <t>Ownership - Res</t>
+  </si>
+  <si>
+    <t>Ownership type of residential property owners by residency status and number of properties owned, with the number of buyers and sale price, where available</t>
+  </si>
+  <si>
+    <t>https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=4610003001</t>
+  </si>
+  <si>
+    <t>Table: 46-10-0030-01</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Non-profit organizations are included under "industry" for building ownership purposes.</t>
+  </si>
+  <si>
+    <t>Urban and rural residential ownership percentages were assumed to be the same</t>
+  </si>
+  <si>
+    <t>because the only data available for residential was general residential.</t>
+  </si>
+  <si>
+    <t>Assumed that of rentals, 75% are owned by individuals and 25% are owned by industry</t>
+  </si>
+  <si>
+    <t>to match assumption in U.S. model.</t>
+  </si>
+  <si>
+    <t>Percentages for all are for floor space, except the 4% of social housing, which is 4%</t>
+  </si>
+  <si>
+    <t>of people, not 4% of floor space.</t>
+  </si>
+  <si>
+    <t>Total in Canada</t>
+  </si>
+  <si>
+    <t>Total owned</t>
+  </si>
+  <si>
+    <t>Total rented</t>
+  </si>
+  <si>
     <t>Ownership</t>
   </si>
   <si>
+    <t>Floor Area Share</t>
+  </si>
+  <si>
     <t>Owned</t>
   </si>
   <si>
+    <t>Rented (total)</t>
+  </si>
+  <si>
+    <t>Share of renders in public housing</t>
+  </si>
+  <si>
+    <t>Rented (public housing)</t>
+  </si>
+  <si>
+    <t>Rented (non-public housing)</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>All owner-occupied housing belongs to consumers.</t>
+  </si>
+  <si>
+    <t>All public housing belongs to government.</t>
+  </si>
+  <si>
+    <t>Fraction of rental housing that is owned by an individual (consumers):</t>
+  </si>
+  <si>
+    <t>Fraction of rental housing that is owned by a company (industry):</t>
+  </si>
+  <si>
     <t>Floor Area</t>
   </si>
   <si>
-    <t>Assumptions:</t>
-  </si>
-  <si>
-    <t>Fraction of rental housing that is owned by a company (industry):</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
@@ -83,25 +189,283 @@
     <t>consumers</t>
   </si>
   <si>
-    <t>All owner-occupied housing belongs to consumers.</t>
-  </si>
-  <si>
-    <t>All public housing belongs to government.</t>
-  </si>
-  <si>
-    <t>Fraction of rental housing that is owned by an individual (consumers):</t>
-  </si>
-  <si>
-    <t>FoBObE Fraction of Buildings Owned by Entity</t>
-  </si>
-  <si>
-    <t>Cash Flow Entity</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
+    <t>Ownership type of residential property owners by residency status and number of properties owned, with the number of buyers and sale price, where available 1 2 3</t>
+  </si>
+  <si>
+    <t>Frequency: Occasional</t>
+  </si>
+  <si>
+    <t>Release date: 2022-04-12</t>
+  </si>
+  <si>
+    <t>Geography: Province or territory</t>
+  </si>
+  <si>
+    <t>Estimates 2 3</t>
+  </si>
+  <si>
+    <t>Number of property owners 4 5</t>
+  </si>
+  <si>
+    <t>Median of total assessment value 6 7 8</t>
+  </si>
+  <si>
+    <t>Number of buyers of properties sold in a market sale 5 9 10 11 12</t>
+  </si>
+  <si>
+    <t>Median sale price of properties purchased in a market sale 7 10 11 12 13</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Ownership type 14</t>
+  </si>
+  <si>
+    <t>Residency status 15</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Dollars</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>Total, all ownership types</t>
+  </si>
+  <si>
+    <t>Total, all residency status of property owner categories</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>27,535A</t>
+  </si>
+  <si>
+    <t>185,000A</t>
+  </si>
+  <si>
+    <t>Non-resident</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>25,680A</t>
+  </si>
+  <si>
+    <t>190,000A</t>
+  </si>
+  <si>
+    <t>Non-individual</t>
+  </si>
+  <si>
+    <t>1,855A</t>
+  </si>
+  <si>
+    <t>110,000A</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>20,550A</t>
+  </si>
+  <si>
+    <t>151,000A</t>
+  </si>
+  <si>
+    <t>19,415A</t>
+  </si>
+  <si>
+    <t>154,000A</t>
+  </si>
+  <si>
+    <t>1,135A</t>
+  </si>
+  <si>
+    <t>80,000A</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>144,380A</t>
+  </si>
+  <si>
+    <t>550,000A</t>
+  </si>
+  <si>
+    <t>138,830A</t>
+  </si>
+  <si>
+    <t>5,550A</t>
+  </si>
+  <si>
+    <t>525,000A</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>1,380A</t>
+  </si>
+  <si>
+    <t>390,000A</t>
+  </si>
+  <si>
+    <t>1,290A</t>
+  </si>
+  <si>
+    <t>396,000A</t>
+  </si>
+  <si>
+    <t>90A</t>
+  </si>
+  <si>
+    <t>66,200A</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Symbol legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not available for a specific reference period</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use with caution</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data quality: excellent</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data quality: very good</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data quality: good</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data quality: acceptable</t>
+  </si>
+  <si>
+    <t>Footnotes:</t>
+  </si>
+  <si>
+    <t>A residential property" refers to all land and structures intended for private occupancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> whether on a permanent or a temporary basis."</t>
+  </si>
+  <si>
+    <t>Previous reference period estimates are subject to revision.</t>
+  </si>
+  <si>
+    <t>The Composite Quality Indicator (CQI) shown in this table is created by combining many individual quality indicators, each one representing the quality of different Canadian Housing Statistics Program (CHSP) data processing steps (for example: coding, geocoding, linkage and imputation) and includes the following values: A - Excellent: All domain variables and the variable of interest are of excellent quality. B - Very good: All domain variables and the variable of interest are of very good to excellent quality. C - Good: The quality of some of the domain variables or the variable of interest is considered good while all the other variables are of very good to excellent quality. D - Acceptable: The quality of some of the domain variables or the variable of interest is considered acceptable while all the other variables are of good to excellent quality. E - Use with caution: Several domain variables or the variable of interest are of poor quality. F - Too unreliable to be published. The CQIs are available starting with the reference period of 2020.</t>
+  </si>
+  <si>
+    <t>Property owner" refers to an individual or non-individual that has property title transferred to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recorded in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> registered in or otherwise carried in their name.   A property may have more than one owner or an owner may have more than one property."</t>
+  </si>
+  <si>
+    <t>Counts undergo random rounding, a process that transforms all raw counts into randomly rounded counts. This reduces the possibility of identifying individuals in the tabulations. All percentages are derived from rounded counts, subtotals and totals may not exactly equal the sum of components due to system rounding.</t>
+  </si>
+  <si>
+    <t>Total assessment value" represents the sum of the assessment values of all residential properties owned by an owner within a given province."</t>
+  </si>
+  <si>
+    <t>Averages and medians are calculated using values greater than zero for the variables of interest.</t>
+  </si>
+  <si>
+    <t>Assessment value" refers to the assessed value of the property for the purposes of determining property taxes. It is important to note that the assessed value does not necessarily represent the market value. Given that different provinces and territories have their own assessment periods and durations of the valuation roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> it is difficult to make accurate comparisons of similar properties from one province or territory to another. For properties that are being utilized for both residential and non-residential purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> only the residential portion's value has been taken into account. The reference years of the assessment values by province or territory are available here: &lt;a href="https://www23.statcan.gc.ca/imdb/p2SV.pl?Function=getSurvey&amp;Id=1281815"&gt;Canadian Housing Statistics Program (CHSP)&lt;/a&gt;."</t>
+  </si>
+  <si>
+    <t>Property buyer" refers to a residential property owner that has property title transferred to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> registered in or otherwise carried in their name after the sale of a property during the reference period."</t>
+  </si>
+  <si>
+    <t>Market sale" refers to an arm’s length transaction where all parties act independently with no influence over the other."</t>
+  </si>
+  <si>
+    <t>Estimates about number of buyers and sale prices are only available for the resident status category “Resident”,  the number of residential properties owned category “Total, all number of properties owned categories”, and for the following geographic regions: Nova Scotia, New Brunswick, British Columbia and Yukon.</t>
+  </si>
+  <si>
+    <t>Buyers are owners in the reference year who purchased a property from January 1 to December 31 of the previous reference year.</t>
+  </si>
+  <si>
+    <t>Sale price" refers to the monetary value of a transaction where goods or services were sold."</t>
+  </si>
+  <si>
+    <t>Ownership type" refers to whether an owner of a residential property is an individual or a non-individual entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> such as corporations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trusts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stt-own ntitis or rlt groups."</t>
+  </si>
+  <si>
+    <t>The residency status of the owner is assigned based on whether the owner is an individual or a non-individual. An individual is considered a resident if his or her primary dwelling is in the economic territory of Canada. Conversely, an individual is considered a non-resident if his or her primary dwelling is outside the economic territory of Canada. Non-individuals are considered residents if they engage in economic activities from a location in the economic territory of Canada. Conversely, non-individuals are considered non-residents if they do not engage in economic activities from a location in the economic territory of Canada.</t>
+  </si>
+  <si>
+    <t>How to cite: Statistics Canada. Table 46-10-0030-01  Ownership type of residential property owners by residency status and number of properties owned, with the number of buyers and sale price, where available</t>
+  </si>
+  <si>
+    <t>Total number of buildings and total building floor space by region by type of ownership</t>
   </si>
   <si>
     <t>Total number of buildings</t>
@@ -158,22 +522,37 @@
     </r>
   </si>
   <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t>Consumers</t>
+  </si>
+  <si>
     <t>All buildings</t>
   </si>
   <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Percent floor space</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>Prairies</t>
   </si>
   <si>
     <r>
@@ -201,127 +580,25 @@
     <t>Source: Commercial and Institutional Building Energy Use Survey 2000.</t>
   </si>
   <si>
-    <t>Natural Resources Canada</t>
-  </si>
-  <si>
-    <t>Office of Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry </t>
-  </si>
-  <si>
-    <t>Consumers</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Table 1.6</t>
-  </si>
-  <si>
-    <t>Total number of buildings and total building floor space by region by type of ownership</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Atlantic</t>
-  </si>
-  <si>
-    <t>Quebec</t>
-  </si>
-  <si>
-    <t>Ontario</t>
-  </si>
-  <si>
-    <t>Prairies</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURVEY OF COMMERCIAL AND INSTITUTIONAL ENERGY USE – BUILDINGS 2009 </t>
-  </si>
-  <si>
-    <t>Percent floor space</t>
-  </si>
-  <si>
-    <t>Survey of Household Energy Use 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office of energy efficiency </t>
-  </si>
-  <si>
-    <t>https://www.statcan.gc.ca/pub/75-001-x/00602/8442-eng.html</t>
-  </si>
-  <si>
-    <t>https://oee.nrcan.gc.ca/publications/statistics/sheu/2011/pdf/sheu2011.pdf</t>
-  </si>
-  <si>
-    <t>Table 1.2</t>
-  </si>
-  <si>
-    <t>Statistics Canada</t>
-  </si>
-  <si>
-    <t>Archived Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gives assumption of 4% of renters living in public housing </t>
-  </si>
-  <si>
-    <t>Non-profit organizations are included under "industry" for building ownership purposes.</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Urban and rural residential ownership percentages were assumed to be the same</t>
-  </si>
-  <si>
-    <t>because the only data available for residential was general residential.</t>
-  </si>
-  <si>
-    <t>Assumed that of rentals, 75% are owned by individuals and 25% are owned by industry</t>
-  </si>
-  <si>
-    <t>to match assumption in U.S. model.</t>
-  </si>
-  <si>
-    <t>Percentages for all are for floor space, except the 4% of social housing, which is 4%</t>
-  </si>
-  <si>
-    <t>of people, not 4% of floor space.</t>
-  </si>
-  <si>
-    <t>Total in Canada</t>
-  </si>
-  <si>
-    <t>Total owned</t>
-  </si>
-  <si>
-    <t>Total rented</t>
-  </si>
-  <si>
-    <t>Floor Area Share</t>
-  </si>
-  <si>
-    <t>Share of renders in public housing</t>
-  </si>
-  <si>
-    <t>Rented (total)</t>
-  </si>
-  <si>
-    <t>Rented (public housing)</t>
-  </si>
-  <si>
-    <t>Rented (non-public housing)</t>
-  </si>
-  <si>
-    <t>http://oee.nrcan.gc.ca/corporate/statistics/neud/dpa/data_e/cibeus/tables/cibeus_1_6_2.cfm?attr=0</t>
+    <t>Ownership by Cash Flow Entity (dimensionless)</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>From old canadian model:</t>
+  </si>
+  <si>
+    <t>domestic industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
   </si>
 </sst>
 </file>
@@ -332,7 +609,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="###,###,###,##0&quot;  &quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +693,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +757,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -744,12 +1053,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -757,11 +1146,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,10 +1177,10 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,74 +1195,97 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,7 +1294,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -948,10 +1364,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Cibeus_00006" connectionId="1" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,158 +1687,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="67.140625" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="54"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
+      <c r="B19" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="71">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{61BDF56E-F483-4019-B7CD-74F0A755700D}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{9933C3FD-62E7-4D78-AC22-09FE83869442}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <extLst>
@@ -1441,165 +1878,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:N61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:14">
       <c r="M6">
         <v>2574921860</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14">
       <c r="M19">
         <v>2253649884</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14">
       <c r="M20">
         <v>321271976</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <f>M19/M6</f>
         <v>0.87523039786535506</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <f>M20/M6</f>
         <v>0.12476960213464497</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <f>0.04*B42</f>
         <v>4.990784085385799E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <f>0.96*B42</f>
         <v>0.11977881804925916</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="28">
+        <v>42</v>
+      </c>
+      <c r="E55" s="27">
         <v>0.75</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="28">
+        <v>43</v>
+      </c>
+      <c r="E56" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="31"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="29">
+    <row r="58" spans="1:5">
+      <c r="A58" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="28">
         <f>B48</f>
         <v>4.990784085385799E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="29">
+    <row r="60" spans="1:5">
+      <c r="A60" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="28">
         <f>B49*E56</f>
         <v>2.994470451231479E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="29">
+    <row r="61" spans="1:5">
+      <c r="A61" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="28">
         <f>B41+B49*E55</f>
         <v>0.96506451140229943</v>
       </c>
@@ -1617,14 +2053,2694 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52760D6-A52B-4E9B-9689-6E19B22F6E20}">
+  <dimension ref="A1:K109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="36">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="36">
+        <v>2020</v>
+      </c>
+      <c r="H10" s="36">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="36">
+        <v>2020</v>
+      </c>
+      <c r="J10" s="36">
+        <v>2019</v>
+      </c>
+      <c r="K10" s="36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="37">
+        <v>487460</v>
+      </c>
+      <c r="E12" s="37">
+        <v>492345</v>
+      </c>
+      <c r="F12" s="37">
+        <v>182000</v>
+      </c>
+      <c r="G12" s="37">
+        <v>184000</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="37">
+        <v>455480</v>
+      </c>
+      <c r="E13" s="37">
+        <v>464495</v>
+      </c>
+      <c r="F13" s="37">
+        <v>185000</v>
+      </c>
+      <c r="G13" s="37">
+        <v>187000</v>
+      </c>
+      <c r="H13" s="37">
+        <v>24790</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="37">
+        <v>175000</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="37">
+        <v>31980</v>
+      </c>
+      <c r="E14" s="37">
+        <v>27850</v>
+      </c>
+      <c r="F14" s="37">
+        <v>113000</v>
+      </c>
+      <c r="G14" s="37">
+        <v>115000</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="37">
+        <v>478500</v>
+      </c>
+      <c r="E15" s="37">
+        <v>483160</v>
+      </c>
+      <c r="F15" s="37">
+        <v>182000</v>
+      </c>
+      <c r="G15" s="37">
+        <v>184000</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="37">
+        <v>446750</v>
+      </c>
+      <c r="E16" s="37">
+        <v>455530</v>
+      </c>
+      <c r="F16" s="37">
+        <v>186000</v>
+      </c>
+      <c r="G16" s="37">
+        <v>187000</v>
+      </c>
+      <c r="H16" s="37">
+        <v>22970</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="37">
+        <v>177000</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="37">
+        <v>31750</v>
+      </c>
+      <c r="E17" s="37">
+        <v>27630</v>
+      </c>
+      <c r="F17" s="37">
+        <v>113000</v>
+      </c>
+      <c r="G17" s="37">
+        <v>114000</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="37">
+        <v>8960</v>
+      </c>
+      <c r="E18" s="37">
+        <v>9185</v>
+      </c>
+      <c r="F18" s="37">
+        <v>171000</v>
+      </c>
+      <c r="G18" s="37">
+        <v>179000</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="37">
+        <v>8730</v>
+      </c>
+      <c r="E19" s="37">
+        <v>8965</v>
+      </c>
+      <c r="F19" s="37">
+        <v>172000</v>
+      </c>
+      <c r="G19" s="37">
+        <v>180000</v>
+      </c>
+      <c r="H19" s="37">
+        <v>1820</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="37">
+        <v>104000</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="36">
+        <v>230</v>
+      </c>
+      <c r="E20" s="36">
+        <v>220</v>
+      </c>
+      <c r="F20" s="37">
+        <v>121000</v>
+      </c>
+      <c r="G20" s="37">
+        <v>144000</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="37">
+        <v>422430</v>
+      </c>
+      <c r="E21" s="37">
+        <v>413135</v>
+      </c>
+      <c r="F21" s="37">
+        <v>137000</v>
+      </c>
+      <c r="G21" s="37">
+        <v>141000</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="37">
+        <v>399180</v>
+      </c>
+      <c r="E22" s="37">
+        <v>390390</v>
+      </c>
+      <c r="F22" s="37">
+        <v>140000</v>
+      </c>
+      <c r="G22" s="37">
+        <v>144000</v>
+      </c>
+      <c r="H22" s="37">
+        <v>19230</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="37">
+        <v>140000</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="37">
+        <v>23250</v>
+      </c>
+      <c r="E23" s="37">
+        <v>22745</v>
+      </c>
+      <c r="F23" s="37">
+        <v>62800</v>
+      </c>
+      <c r="G23" s="37">
+        <v>62700</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="37">
+        <v>414415</v>
+      </c>
+      <c r="E24" s="37">
+        <v>404410</v>
+      </c>
+      <c r="F24" s="37">
+        <v>137000</v>
+      </c>
+      <c r="G24" s="37">
+        <v>141000</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="37">
+        <v>391265</v>
+      </c>
+      <c r="E25" s="37">
+        <v>381770</v>
+      </c>
+      <c r="F25" s="37">
+        <v>141000</v>
+      </c>
+      <c r="G25" s="37">
+        <v>145000</v>
+      </c>
+      <c r="H25" s="37">
+        <v>18315</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="37">
+        <v>143000</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="37">
+        <v>23150</v>
+      </c>
+      <c r="E26" s="37">
+        <v>22640</v>
+      </c>
+      <c r="F26" s="37">
+        <v>62800</v>
+      </c>
+      <c r="G26" s="37">
+        <v>62700</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="37">
+        <v>8015</v>
+      </c>
+      <c r="E27" s="37">
+        <v>8725</v>
+      </c>
+      <c r="F27" s="37">
+        <v>84900</v>
+      </c>
+      <c r="G27" s="37">
+        <v>83400</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="37">
+        <v>7915</v>
+      </c>
+      <c r="E28" s="37">
+        <v>8620</v>
+      </c>
+      <c r="F28" s="37">
+        <v>85800</v>
+      </c>
+      <c r="G28" s="37">
+        <v>83900</v>
+      </c>
+      <c r="H28" s="36">
+        <v>915</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="37">
+        <v>71200</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="36">
+        <v>100</v>
+      </c>
+      <c r="E29" s="36">
+        <v>105</v>
+      </c>
+      <c r="F29" s="37">
+        <v>56300</v>
+      </c>
+      <c r="G29" s="37">
+        <v>52600</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75">
+      <c r="A30" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="37">
+        <v>6100685</v>
+      </c>
+      <c r="E30" s="37">
+        <v>6147630</v>
+      </c>
+      <c r="F30" s="37">
+        <v>415000</v>
+      </c>
+      <c r="G30" s="37">
+        <v>414000</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="37">
+        <v>5913360</v>
+      </c>
+      <c r="E31" s="37">
+        <v>5960305</v>
+      </c>
+      <c r="F31" s="37">
+        <v>417000</v>
+      </c>
+      <c r="G31" s="37">
+        <v>416000</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="37">
+        <v>187325</v>
+      </c>
+      <c r="E32" s="37">
+        <v>187325</v>
+      </c>
+      <c r="F32" s="37">
+        <v>346000</v>
+      </c>
+      <c r="G32" s="37">
+        <v>349000</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="37">
+        <v>6007510</v>
+      </c>
+      <c r="E33" s="37">
+        <v>6052285</v>
+      </c>
+      <c r="F33" s="37">
+        <v>415000</v>
+      </c>
+      <c r="G33" s="37">
+        <v>414000</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="37">
+        <v>5821040</v>
+      </c>
+      <c r="E34" s="37">
+        <v>5865795</v>
+      </c>
+      <c r="F34" s="37">
+        <v>418000</v>
+      </c>
+      <c r="G34" s="37">
+        <v>416000</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="37">
+        <v>186470</v>
+      </c>
+      <c r="E35" s="37">
+        <v>186490</v>
+      </c>
+      <c r="F35" s="37">
+        <v>345000</v>
+      </c>
+      <c r="G35" s="37">
+        <v>349000</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="37">
+        <v>93175</v>
+      </c>
+      <c r="E36" s="37">
+        <v>95345</v>
+      </c>
+      <c r="F36" s="37">
+        <v>386000</v>
+      </c>
+      <c r="G36" s="37">
+        <v>386000</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="37">
+        <v>92320</v>
+      </c>
+      <c r="E37" s="37">
+        <v>94510</v>
+      </c>
+      <c r="F37" s="37">
+        <v>386000</v>
+      </c>
+      <c r="G37" s="37">
+        <v>387000</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="36">
+        <v>855</v>
+      </c>
+      <c r="E38" s="36">
+        <v>835</v>
+      </c>
+      <c r="F38" s="37">
+        <v>385000</v>
+      </c>
+      <c r="G38" s="37">
+        <v>372000</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="A39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="37">
+        <v>2162150</v>
+      </c>
+      <c r="E39" s="37">
+        <v>2197935</v>
+      </c>
+      <c r="F39" s="37">
+        <v>725000</v>
+      </c>
+      <c r="G39" s="37">
+        <v>700000</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="37">
+        <v>2071060</v>
+      </c>
+      <c r="E40" s="37">
+        <v>2109265</v>
+      </c>
+      <c r="F40" s="37">
+        <v>724000</v>
+      </c>
+      <c r="G40" s="37">
+        <v>700000</v>
+      </c>
+      <c r="H40" s="37">
+        <v>154645</v>
+      </c>
+      <c r="I40" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="37">
+        <v>542000</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="37">
+        <v>91090</v>
+      </c>
+      <c r="E41" s="37">
+        <v>88670</v>
+      </c>
+      <c r="F41" s="37">
+        <v>739000</v>
+      </c>
+      <c r="G41" s="37">
+        <v>705000</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="37">
+        <v>2122265</v>
+      </c>
+      <c r="E42" s="37">
+        <v>2156745</v>
+      </c>
+      <c r="F42" s="37">
+        <v>723000</v>
+      </c>
+      <c r="G42" s="37">
+        <v>698000</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="37">
+        <v>2031420</v>
+      </c>
+      <c r="E43" s="37">
+        <v>2068280</v>
+      </c>
+      <c r="F43" s="37">
+        <v>722000</v>
+      </c>
+      <c r="G43" s="37">
+        <v>698000</v>
+      </c>
+      <c r="H43" s="37">
+        <v>147315</v>
+      </c>
+      <c r="I43" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="37">
+        <v>540000</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="37">
+        <v>90845</v>
+      </c>
+      <c r="E44" s="37">
+        <v>88465</v>
+      </c>
+      <c r="F44" s="37">
+        <v>739000</v>
+      </c>
+      <c r="G44" s="37">
+        <v>705000</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="37">
+        <v>39885</v>
+      </c>
+      <c r="E45" s="37">
+        <v>41190</v>
+      </c>
+      <c r="F45" s="37">
+        <v>990000</v>
+      </c>
+      <c r="G45" s="37">
+        <v>953000</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="37">
+        <v>39640</v>
+      </c>
+      <c r="E46" s="37">
+        <v>40985</v>
+      </c>
+      <c r="F46" s="37">
+        <v>991000</v>
+      </c>
+      <c r="G46" s="37">
+        <v>953000</v>
+      </c>
+      <c r="H46" s="37">
+        <v>7330</v>
+      </c>
+      <c r="I46" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" s="37">
+        <v>585000</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="36">
+        <v>245</v>
+      </c>
+      <c r="E47" s="36">
+        <v>205</v>
+      </c>
+      <c r="F47" s="37">
+        <v>861000</v>
+      </c>
+      <c r="G47" s="37">
+        <v>1040000</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="37">
+        <v>17070</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="37">
+        <v>224000</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="37">
+        <v>15670</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="37">
+        <v>229000</v>
+      </c>
+      <c r="H49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="37">
+        <v>1400</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="37">
+        <v>157000</v>
+      </c>
+      <c r="H50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="37">
+        <v>16625</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="37">
+        <v>224000</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="37">
+        <v>15225</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="37">
+        <v>228000</v>
+      </c>
+      <c r="H52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="37">
+        <v>1400</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="37">
+        <v>157000</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="36">
+        <v>445</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="37">
+        <v>259000</v>
+      </c>
+      <c r="H54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J54" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="36">
+        <v>445</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="37">
+        <v>261000</v>
+      </c>
+      <c r="H55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J56" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75">
+      <c r="A57" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="37">
+        <v>3445</v>
+      </c>
+      <c r="F57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="37">
+        <v>119000</v>
+      </c>
+      <c r="H57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J57" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75">
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="37">
+        <v>3155</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="37">
+        <v>119000</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J58" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75">
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="36">
+        <v>290</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="37">
+        <v>109000</v>
+      </c>
+      <c r="H59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75">
+      <c r="A60" s="36"/>
+      <c r="B60" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="37">
+        <v>3185</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="37">
+        <v>117000</v>
+      </c>
+      <c r="H60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75">
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="37">
+        <v>2895</v>
+      </c>
+      <c r="F61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="37">
+        <v>118000</v>
+      </c>
+      <c r="H61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75">
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="36">
+        <v>290</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="37">
+        <v>109000</v>
+      </c>
+      <c r="H62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75">
+      <c r="A63" s="36"/>
+      <c r="B63" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="36">
+        <v>260</v>
+      </c>
+      <c r="F63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="37">
+        <v>208000</v>
+      </c>
+      <c r="H63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75">
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="36">
+        <v>260</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="37">
+        <v>208000</v>
+      </c>
+      <c r="H64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75">
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="36">
+        <v>0</v>
+      </c>
+      <c r="F65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75">
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75">
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75">
+      <c r="A68" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="37">
+        <f>SUM(E57,E48,E39,E30,E21,E12)</f>
+        <v>9271560</v>
+      </c>
+      <c r="D68" s="45">
+        <v>1</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75">
+      <c r="A69" s="44"/>
+      <c r="B69" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="37">
+        <f>SUM(E15,E24,E33,E42,E51,E60)</f>
+        <v>9116410</v>
+      </c>
+      <c r="D69" s="45">
+        <f>C69/C$68</f>
+        <v>0.98326603074347796</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75">
+      <c r="A70" s="44"/>
+      <c r="B70" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="37">
+        <f>SUM(E16,E25,E34,E43,E52,E61)</f>
+        <v>8789495</v>
+      </c>
+      <c r="D70" s="45">
+        <f t="shared" ref="D70:D74" si="0">C70/C$68</f>
+        <v>0.94800605291881845</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75">
+      <c r="A71" s="44"/>
+      <c r="B71" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="37">
+        <f>SUM(E17,E26,E35,E44,E53,E62)</f>
+        <v>326915</v>
+      </c>
+      <c r="D71" s="45">
+        <f t="shared" si="0"/>
+        <v>3.5259977824659498E-2</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75">
+      <c r="A72" s="44"/>
+      <c r="B72" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="37">
+        <f>SUM(E18,E27,E36,E45,E54,E63)</f>
+        <v>155150</v>
+      </c>
+      <c r="D72" s="45">
+        <f t="shared" si="0"/>
+        <v>1.6733969256522097E-2</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75">
+      <c r="A73" s="44"/>
+      <c r="B73" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="37">
+        <f>SUM(E19,E28,E37,E46,E55,E64)</f>
+        <v>153785</v>
+      </c>
+      <c r="D73" s="45">
+        <f t="shared" si="0"/>
+        <v>1.6586744841213346E-2</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+    </row>
+    <row r="74" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A74" s="46"/>
+      <c r="B74" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="47">
+        <f>SUM(E20,E29,E38,E47,E56,E65)</f>
+        <v>1365</v>
+      </c>
+      <c r="D74" s="48">
+        <f t="shared" si="0"/>
+        <v>1.4722441530875063E-4</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75">
+      <c r="A78" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75">
+      <c r="A79" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75">
+      <c r="A80" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75">
+      <c r="A81" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75">
+      <c r="A82" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75">
+      <c r="A83" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75">
+      <c r="A84" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+    </row>
+    <row r="85" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75">
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75">
+      <c r="A89" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75">
+      <c r="A90" s="36">
+        <v>1</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75">
+      <c r="A91" s="36">
+        <v>2</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75">
+      <c r="A92" s="36">
+        <v>3</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75">
+      <c r="A93" s="36">
+        <v>4</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75">
+      <c r="A94" s="36">
+        <v>5</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75">
+      <c r="A95" s="36">
+        <v>6</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75">
+      <c r="A96" s="36">
+        <v>7</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75">
+      <c r="A97" s="36">
+        <v>8</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75">
+      <c r="A98" s="36">
+        <v>9</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75">
+      <c r="A99" s="36">
+        <v>10</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75">
+      <c r="A100" s="36">
+        <v>11</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75">
+      <c r="A101" s="36">
+        <v>12</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75">
+      <c r="A102" s="36">
+        <v>13</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75">
+      <c r="A103" s="36">
+        <v>14</v>
+      </c>
+      <c r="B103" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75">
+      <c r="A104" s="36">
+        <v>15</v>
+      </c>
+      <c r="B104" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75">
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="36"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75">
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75">
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="36"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75">
+      <c r="A108" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="36"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="36"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75">
+      <c r="A109" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="36"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="39.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="5" customWidth="1"/>
@@ -1651,630 +4767,630 @@
     <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-    </row>
-    <row r="2" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="40"/>
-    </row>
-    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="40"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-    </row>
-    <row r="6" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="49"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
+      <c r="A1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+    </row>
+    <row r="4" spans="1:22" ht="12" customHeight="1">
+      <c r="B4" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="55"/>
+    </row>
+    <row r="5" spans="1:22" ht="12" customHeight="1">
+      <c r="B5" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="55"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+    </row>
+    <row r="6" spans="1:22" ht="38.25" customHeight="1">
+      <c r="B6" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="64"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15">
       <c r="A7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
+        <v>151</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="68"/>
       <c r="R7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="26">
+        <v>152</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="T7" s="25">
         <f>P8/R8</f>
         <v>0.28066590761392285</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <f>(L8+N8)/R8</f>
         <v>0.52271220946994912</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="25">
         <f>J8/R8</f>
         <v>0.19662188291612803</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8">
         <v>54022</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D8" s="8">
         <v>49768</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F8" s="8">
         <v>16505</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="H8" s="8">
         <v>16745</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="J8" s="11">
         <v>59492076</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="L8" s="8">
         <v>129712194</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N8" s="8">
         <v>28445352</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="P8" s="8">
         <v>84921359</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="R8" s="22">
         <f>SUM(J8+L8+N8+P8)</f>
         <v>302570981</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
+      <c r="A9" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="B10" s="8">
         <v>3584</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8">
         <v>3756</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F10" s="8">
         <v>889</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H10" s="8">
         <v>1193</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="J10" s="11">
         <v>4043631</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L10" s="8">
         <v>6924178</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N10" s="8">
         <v>928148</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="P10" s="8">
         <v>5087579</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="16" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B11" s="12">
         <v>13584</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D11" s="12">
         <v>10818</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F11" s="12">
         <v>3730</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H11" s="12">
         <v>3868</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="J11" s="15">
         <v>12630126</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="L11" s="12">
         <v>30251570</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N11" s="12">
         <v>5818873</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="P11" s="12">
         <v>22462172</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="16" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B12" s="12">
         <v>23428</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D12" s="12">
         <v>17719</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F12" s="12">
         <v>5159</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="H12" s="12">
         <v>5876</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="J12" s="15">
         <v>29731098</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="L12" s="12">
         <v>49612578</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N12" s="12">
         <v>9030932</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="P12" s="12">
         <v>31495957</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="16" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B13" s="12">
         <v>8269</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D13" s="12">
         <v>10051</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F13" s="12">
         <v>4672</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="H13" s="12">
         <v>3763</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="J13" s="15">
         <v>7733955</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="L13" s="12">
         <v>31400740</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="N13" s="12">
         <v>9005427</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="P13" s="12">
         <v>19476795</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="17" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B14" s="18">
         <v>5157</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D14" s="18">
         <v>7423</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="F14" s="18">
         <v>2055</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="H14" s="18">
         <v>2045</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="J14" s="21">
         <v>5353266</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="L14" s="18">
         <v>11523127</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N14" s="18">
         <v>3661972</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="P14" s="18">
         <v>6398855</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-    </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" spans="1:22" ht="27" customHeight="1">
+      <c r="A16" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+    </row>
+    <row r="20" spans="1:17" ht="15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2293,7 +5409,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2312,7 +5428,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2331,7 +5447,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2350,7 +5466,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2369,7 +5485,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2388,7 +5504,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2407,7 +5523,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2426,7 +5542,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2445,7 +5561,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2464,7 +5580,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -2483,7 +5599,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -2502,7 +5618,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -2521,7 +5637,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -2540,7 +5656,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -2559,7 +5675,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -2578,7 +5694,7 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -2597,7 +5713,7 @@
       <c r="P36"/>
       <c r="Q36"/>
     </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -2616,7 +5732,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2635,7 +5751,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -2654,7 +5770,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2673,7 +5789,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2692,7 +5808,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2711,7 +5827,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2730,7 +5846,7 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2749,7 +5865,7 @@
       <c r="P44"/>
       <c r="Q44"/>
     </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2768,7 +5884,7 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2787,7 +5903,7 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2806,7 +5922,7 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2825,7 +5941,7 @@
       <c r="P48"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2844,7 +5960,7 @@
       <c r="P49"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -2863,7 +5979,7 @@
       <c r="P50"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -2882,7 +5998,7 @@
       <c r="P51"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -2901,7 +6017,7 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -2920,7 +6036,7 @@
       <c r="P53"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -2939,7 +6055,7 @@
       <c r="P54"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -2958,7 +6074,7 @@
       <c r="P55"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="25.5" customHeight="1">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -2977,7 +6093,7 @@
       <c r="P56"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -2996,7 +6112,7 @@
       <c r="P57"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3015,7 +6131,7 @@
       <c r="P58"/>
       <c r="Q58"/>
     </row>
-    <row r="59" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -3034,7 +6150,7 @@
       <c r="P59"/>
       <c r="Q59"/>
     </row>
-    <row r="60" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3087,16 +6203,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A280A3B-54DA-4B52-A995-7E387A96031E}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45.75">
+      <c r="A1" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Residential!B59</f>
+        <v>4.990784085385799E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2</f>
+        <v>4.990784085385799E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <f>K3*(1-$B$5)</f>
+        <v>0.27077790944991331</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="4">
+        <f>'Ownsership - Res'!D73*(1-Calculations!B2)</f>
+        <v>1.6503963979031464E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <v>1.6503963979031464E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D4" si="1">K4*(1-$B$5)</f>
+        <v>0.5042968008744243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="70">
+        <f>Commercial!T7</f>
+        <v>0.28066590761392285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Ownsership - Res'!D70*(1-Calculations!B2)</f>
+        <v>0.94327475939706185</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.94327475939706185</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18969479713714144</v>
+      </c>
+      <c r="H4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4">
+        <v>0.03</v>
+      </c>
+      <c r="J4">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="70">
+        <f>Commercial!U7</f>
+        <v>0.52271220946994912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="69">
+        <f>('Ownsership - Res'!D74+'Ownsership - Res'!D71)*(1-Calculations!B2)</f>
+        <v>3.523049253852098E-2</v>
+      </c>
+      <c r="C5" s="69">
+        <f t="shared" si="0"/>
+        <v>3.523049253852098E-2</v>
+      </c>
+      <c r="D5" s="69">
+        <f>B5</f>
+        <v>3.523049253852098E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="K5" s="70">
+        <f>Commercial!V7</f>
+        <v>0.19662188291612803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUM(B2:B5)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D2:D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
@@ -3104,69 +6400,86 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:4" ht="45.75">
+      <c r="A1" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="4">
-        <f>Residential!B59</f>
+        <f>Calculations!B2</f>
         <v>4.990784085385799E-3</v>
       </c>
       <c r="C2" s="4">
-        <f>B2</f>
+        <f>Calculations!C2</f>
         <v>4.990784085385799E-3</v>
       </c>
       <c r="D2" s="4">
-        <f>Commercial!T7</f>
-        <v>0.28066590761392285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
+        <f>Calculations!D2</f>
+        <v>0.27077790944991331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="B3" s="4">
-        <f>Residential!B60</f>
-        <v>2.994470451231479E-2</v>
+        <f>Calculations!B3</f>
+        <v>1.6503963979031464E-2</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3" si="0">B3</f>
-        <v>2.994470451231479E-2</v>
+        <f>Calculations!C3</f>
+        <v>1.6503963979031464E-2</v>
       </c>
       <c r="D3" s="4">
-        <f>Commercial!U7</f>
-        <v>0.52271220946994912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
+        <f>Calculations!D3</f>
+        <v>0.5042968008744243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="B4" s="4">
-        <f>Residential!B61</f>
-        <v>0.96506451140229943</v>
+        <f>Calculations!B4</f>
+        <v>0.94327475939706185</v>
       </c>
       <c r="C4" s="4">
-        <f>B4</f>
-        <v>0.96506451140229943</v>
+        <f>Calculations!C4</f>
+        <v>0.94327475939706185</v>
       </c>
       <c r="D4" s="4">
-        <f>Commercial!V7</f>
-        <v>0.19662188291612803</v>
+        <f>Calculations!D4</f>
+        <v>0.18969479713714144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Calculations!B5</f>
+        <v>3.523049253852098E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Calculations!C5</f>
+        <v>3.523049253852098E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Calculations!D5</f>
+        <v>3.523049253852098E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3177,4 +6490,288 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E37E136C-98C6-446D-9650-D94FF164C56D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FCD1FA1-2577-46FE-A6D5-9F8AAA8A0699}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70C83657-77ED-414D-83FC-3B1EDAEE03CF}"/>
 </file>
--- a/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
+++ b/InputData/bldgs/FoBObE/Frac of Bldgs Owned by Entity.xlsx
@@ -6493,8 +6493,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -6518,6 +6518,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6606,6 +6609,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6760,12 +6780,15 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E37E136C-98C6-446D-9650-D94FF164C56D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA6FCDC2-ADEA-4329-B694-70520940CC98}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
